--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kolagani renuka\Dropbox\PC\Downloads\HybridAutomationProject_COMPLETE\com_Create_org\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB62A3-BFF8-4695-9521-4B6E7AECA8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652A213C-A530-4EB2-A01F-8CA3B9456B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1AB31C90-B76D-4049-B48E-DDCF4E1224E5}"/>
   </bookViews>
@@ -58,9 +58,6 @@
     <t>Renu8</t>
   </si>
   <si>
-    <t>lastname</t>
-  </si>
-  <si>
     <t>r</t>
   </si>
   <si>
@@ -85,7 +82,10 @@
     <t>w</t>
   </si>
   <si>
-    <t>firstname</t>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PW</t>
   </si>
 </sst>
 </file>
@@ -437,82 +437,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E717100C-6F63-4B36-9217-989E0832D049}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
